--- a/output/CodeSystem-appointment-cancellation-reason.xlsx
+++ b/output/CodeSystem-appointment-cancellation-reason.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T13:51:55+02:00</t>
+    <t>2023-04-18T14:05:08+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
